--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1994.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1994.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.003*"foreign" + 0.003*"may" + 0.002*"exchange" + 0.002*"import" + 0.002*"bank" + 0.002*"export" + 0.002*"rate" + 0.002*"account" + 0.001*"currency" + 0.001*"payment"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"may" + 0.001*"import" + 0.001*"bank" + 0.001*"export" + 0.001*"exchange" + 0.001*"rate" + 0.001*"account" + 0.001*"currency" + 0.001*"payment"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"exchange" + 0.001*"import" + 0.001*"bank" + 0.001*"currency" + 0.001*"rate" + 0.001*"export" + 0.001*"may" + 0.001*"account" + 0.001*"payment"</t>
-  </si>
-  <si>
-    <t>0.023*"foreign" + 0.020*"exchange" + 0.019*"bank" + 0.015*"import" + 0.015*"may" + 0.012*"currency" + 0.012*"export" + 0.011*"account" + 0.010*"rate" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.011*"bank" + 0.010*"foreign" + 0.009*"currency" + 0.008*"exchange" + 0.008*"import" + 0.007*"may" + 0.006*"rate" + 0.006*"payment" + 0.005*"account" + 0.005*"export"</t>
+    <t>0.066*"exchange" + 0.047*"bank" + 0.037*"rate" + 0.029*"foreign" + 0.021*"currency" + 0.016*"transaction" + 0.015*"must" + 0.015*"central" + 0.015*"payment" + 0.014*"proceeds"</t>
+  </si>
+  <si>
+    <t>0.045*"export" + 0.039*"percent" + 0.027*"import" + 0.023*"require" + 0.022*"subject" + 0.021*"fund" + 0.021*"international" + 0.020*"tariff" + 0.018*"monetary" + 0.016*"product"</t>
+  </si>
+  <si>
+    <t>0.058*"import" + 0.027*"gold" + 0.018*"trade" + 0.016*"good" + 0.014*"payment" + 0.014*"export" + 0.013*"state" + 0.011*"ministry" + 0.011*"agreement" + 0.009*"license"</t>
+  </si>
+  <si>
+    <t>0.034*"investment" + 0.025*"capital" + 0.025*"foreign" + 0.018*"regulation" + 0.015*"december" + 0.013*"redistribution" + 0.013*"dollar" + 0.012*"commission" + 0.011*"apply" + 0.011*"exchange"</t>
+  </si>
+  <si>
+    <t>0.047*"may" + 0.042*"foreign" + 0.039*"account" + 0.030*"bank" + 0.026*"currency" + 0.023*"resident" + 0.021*"nonresident" + 0.021*"abroad" + 0.016*"country" + 0.012*"transfer"</t>
   </si>
 </sst>
 </file>
